--- a/StructureDefinition-ext-R5-ClaimResponse.ite.reviewOutcome.xlsx
+++ b/StructureDefinition-ext-R5-ClaimResponse.ite.reviewOutcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ClaimResponse.item.reviewOutcome` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `ClaimResponse.item.reviewOutcome` is mapped to FHIR R4 structure `ClaimResponse`, but has no target element specified.</t>
+Element `ClaimResponse.item.reviewOutcome` is will have a context of ClaimResponse.item based on following the parent source element upwards and mapping to `ClaimResponse`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ClaimResponse.item</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,7 +343,7 @@
   <si>
     <t>To advise the requestor of the result of the adjudication process. Element `ClaimResponse.item.reviewOutcome.decision` is part of an existing definition because parent element `ClaimResponse.item.reviewOutcome` requires a cross-version extension.
 Element `ClaimResponse.item.reviewOutcome.decision` is part of an existing definition because parent element `ClaimResponse.item.reviewOutcome` requires a component extension (e.g., if this element is used as a content reference).
-Element `ClaimResponse.item.reviewOutcome.decision` is mapped to FHIR R4 structure `ClaimResponse`, but has no target element specified.</t>
+Element `ClaimResponse.item.reviewOutcome.decision` is will have a context of ClaimResponse.item based on following the parent source element upwards and mapping to `ClaimResponse`.</t>
   </si>
   <si>
     <t>Extension.extension:decision.id</t>
@@ -427,7 +427,7 @@
   <si>
     <t>To advise the requestor of the contributors to the result of the adjudication process. Element `ClaimResponse.item.reviewOutcome.reason` is part of an existing definition because parent element `ClaimResponse.item.reviewOutcome` requires a cross-version extension.
 Element `ClaimResponse.item.reviewOutcome.reason` is part of an existing definition because parent element `ClaimResponse.item.reviewOutcome` requires a component extension (e.g., if this element is used as a content reference).
-Element `ClaimResponse.item.reviewOutcome.reason` is mapped to FHIR R4 structure `ClaimResponse`, but has no target element specified.</t>
+Element `ClaimResponse.item.reviewOutcome.reason` is will have a context of ClaimResponse.item based on following the parent source element upwards and mapping to `ClaimResponse`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.id</t>
@@ -459,7 +459,7 @@
   <si>
     <t>On subsequent claims, the insurer may require the provider to quote this value. Element `ClaimResponse.item.reviewOutcome.preAuthRef` is part of an existing definition because parent element `ClaimResponse.item.reviewOutcome` requires a cross-version extension.
 Element `ClaimResponse.item.reviewOutcome.preAuthRef` is part of an existing definition because parent element `ClaimResponse.item.reviewOutcome` requires a component extension (e.g., if this element is used as a content reference).
-Element `ClaimResponse.item.reviewOutcome.preAuthRef` is mapped to FHIR R4 structure `ClaimResponse`, but has no target element specified.</t>
+Element `ClaimResponse.item.reviewOutcome.preAuthRef` is will have a context of ClaimResponse.item based on following the parent source element upwards and mapping to `ClaimResponse`.</t>
   </si>
   <si>
     <t>Extension.extension:preAuthRef.id</t>
@@ -488,7 +488,7 @@
   <si>
     <t>To convey to the provider when the authorized products and services must be supplied for the authorized adjudication to apply. Element `ClaimResponse.item.reviewOutcome.preAuthPeriod` is part of an existing definition because parent element `ClaimResponse.item.reviewOutcome` requires a cross-version extension.
 Element `ClaimResponse.item.reviewOutcome.preAuthPeriod` is part of an existing definition because parent element `ClaimResponse.item.reviewOutcome` requires a component extension (e.g., if this element is used as a content reference).
-Element `ClaimResponse.item.reviewOutcome.preAuthPeriod` is mapped to FHIR R4 structure `ClaimResponse`, but has no target element specified.</t>
+Element `ClaimResponse.item.reviewOutcome.preAuthPeriod` is will have a context of ClaimResponse.item based on following the parent source element upwards and mapping to `ClaimResponse`.</t>
   </si>
   <si>
     <t>Extension.extension:preAuthPeriod.id</t>
